--- a/data/trans_orig/P36BPD10_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD10_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1CE8C57-2D95-4781-AA04-5178363667AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EF7A56C-F5DE-428C-A55E-079BC71BF09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2C87951D-D299-4E20-9A5B-7DEF614193BA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9951ACE3-5F13-4CC5-B0C3-E09F5287FB18}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="205">
   <si>
     <t>Población según el número de raciones pescado o mariscos que consumen a la semana en 2023 (Tasa respuesta: 99,85%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>12,75%</t>
   </si>
   <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
   </si>
   <si>
     <t>10,01%</t>
   </si>
   <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
   </si>
   <si>
     <t>11,42%</t>
   </si>
   <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
   </si>
   <si>
     <t>Uno por semana</t>
@@ -104,28 +104,28 @@
     <t>49,24%</t>
   </si>
   <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
   </si>
   <si>
     <t>48,02%</t>
   </si>
   <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
   </si>
   <si>
     <t>48,65%</t>
   </si>
   <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
   </si>
   <si>
     <t>Dos o más por semana</t>
@@ -134,28 +134,28 @@
     <t>38,01%</t>
   </si>
   <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
   </si>
   <si>
     <t>41,97%</t>
   </si>
   <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
   </si>
   <si>
     <t>39,93%</t>
   </si>
   <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,484 +167,487 @@
     <t>12,69%</t>
   </si>
   <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
   </si>
   <si>
     <t>9,77%</t>
   </si>
   <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
   </si>
   <si>
     <t>11,11%</t>
   </si>
   <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
   </si>
   <si>
     <t>52,01%</t>
   </si>
   <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
   </si>
   <si>
     <t>51,14%</t>
   </si>
   <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
     <t>45,74%</t>
   </si>
   <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
   </si>
   <si>
     <t>44,63%</t>
   </si>
   <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1059,7 +1062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333B3443-9514-49E9-B21A-6AEE6206AE6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99618922-E63C-4DBF-A02E-7D39EFDCFFE1}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1885,10 +1888,10 @@
         <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1903,13 +1906,13 @@
         <v>290995</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>559</v>
@@ -1918,13 +1921,13 @@
         <v>362805</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>862</v>
@@ -1933,13 +1936,13 @@
         <v>653800</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1995,7 +1998,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2007,13 +2010,13 @@
         <v>54110</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>71</v>
@@ -2022,13 +2025,13 @@
         <v>43953</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>124</v>
@@ -2037,13 +2040,13 @@
         <v>98063</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>133</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2058,13 +2061,13 @@
         <v>282175</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H21" s="7">
         <v>412</v>
@@ -2073,13 +2076,13 @@
         <v>254127</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M21" s="7">
         <v>724</v>
@@ -2088,13 +2091,13 @@
         <v>536302</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2109,13 +2112,13 @@
         <v>262795</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>517</v>
@@ -2124,13 +2127,13 @@
         <v>297561</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>814</v>
@@ -2139,13 +2142,13 @@
         <v>560356</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2201,7 +2204,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2213,13 +2216,13 @@
         <v>45947</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H24" s="7">
         <v>114</v>
@@ -2228,13 +2231,13 @@
         <v>67083</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M24" s="7">
         <v>180</v>
@@ -2243,13 +2246,13 @@
         <v>113031</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2264,13 +2267,13 @@
         <v>306563</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H25" s="7">
         <v>765</v>
@@ -2279,13 +2282,13 @@
         <v>425434</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M25" s="7">
         <v>1213</v>
@@ -2294,13 +2297,13 @@
         <v>731997</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2315,13 +2318,13 @@
         <v>343052</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>171</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H26" s="7">
         <v>828</v>
@@ -2333,7 +2336,7 @@
         <v>51</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>174</v>
@@ -2551,13 +2554,13 @@
         <v>3206539</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>96</v>
+        <v>201</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2613,7 +2616,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36BPD10_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD10_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EF7A56C-F5DE-428C-A55E-079BC71BF09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{223CFAC0-6D81-4581-8993-57F9C0D07412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9951ACE3-5F13-4CC5-B0C3-E09F5287FB18}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{95D7F939-23B3-4191-AFCC-11290CF979F0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="228">
   <si>
     <t>Población según el número de raciones pescado o mariscos que consumen a la semana en 2023 (Tasa respuesta: 99,85%)</t>
   </si>
@@ -65,589 +65,658 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Menos de una por semana</t>
   </si>
   <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
   </si>
   <si>
     <t>Uno por semana</t>
   </si>
   <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>Dos o más por semana</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
   </si>
   <si>
     <t>48,65%</t>
   </si>
   <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>Dos o más por semana</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
   </si>
   <si>
     <t>40,21%</t>
   </si>
   <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
+    <t>30,25%</t>
   </si>
   <si>
     <t>43,81%</t>
   </si>
   <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1062,8 +1131,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99618922-E63C-4DBF-A02E-7D39EFDCFFE1}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88706E9E-2D55-43BC-B84F-309816FE9B21}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1183,7 +1252,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="7">
-        <v>48147</v>
+        <v>52041</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1198,7 +1267,7 @@
         <v>25</v>
       </c>
       <c r="I4" s="7">
-        <v>35547</v>
+        <v>35211</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1213,7 +1282,7 @@
         <v>47</v>
       </c>
       <c r="N4" s="7">
-        <v>83694</v>
+        <v>87251</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1234,7 +1303,7 @@
         <v>92</v>
       </c>
       <c r="D5" s="7">
-        <v>185961</v>
+        <v>188626</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1249,7 +1318,7 @@
         <v>97</v>
       </c>
       <c r="I5" s="7">
-        <v>170449</v>
+        <v>144826</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1264,7 +1333,7 @@
         <v>189</v>
       </c>
       <c r="N5" s="7">
-        <v>356410</v>
+        <v>333452</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1285,7 +1354,7 @@
         <v>58</v>
       </c>
       <c r="D6" s="7">
-        <v>143570</v>
+        <v>159321</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1300,7 +1369,7 @@
         <v>85</v>
       </c>
       <c r="I6" s="7">
-        <v>148961</v>
+        <v>133163</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1315,7 +1384,7 @@
         <v>143</v>
       </c>
       <c r="N6" s="7">
-        <v>292531</v>
+        <v>292484</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1336,7 +1405,7 @@
         <v>172</v>
       </c>
       <c r="D7" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1351,7 +1420,7 @@
         <v>207</v>
       </c>
       <c r="I7" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1366,7 +1435,7 @@
         <v>379</v>
       </c>
       <c r="N7" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -1389,7 +1458,7 @@
         <v>33</v>
       </c>
       <c r="D8" s="7">
-        <v>54144</v>
+        <v>54093</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -1404,7 +1473,7 @@
         <v>42</v>
       </c>
       <c r="I8" s="7">
-        <v>48690</v>
+        <v>43690</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -1419,7 +1488,7 @@
         <v>75</v>
       </c>
       <c r="N8" s="7">
-        <v>102834</v>
+        <v>97783</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -1440,7 +1509,7 @@
         <v>162</v>
       </c>
       <c r="D9" s="7">
-        <v>221976</v>
+        <v>215558</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -1455,7 +1524,7 @@
         <v>231</v>
       </c>
       <c r="I9" s="7">
-        <v>254982</v>
+        <v>286169</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -1470,7 +1539,7 @@
         <v>393</v>
       </c>
       <c r="N9" s="7">
-        <v>476959</v>
+        <v>501727</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -1491,7 +1560,7 @@
         <v>106</v>
       </c>
       <c r="D10" s="7">
-        <v>150642</v>
+        <v>152230</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -1506,7 +1575,7 @@
         <v>187</v>
       </c>
       <c r="I10" s="7">
-        <v>194905</v>
+        <v>181645</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -1521,7 +1590,7 @@
         <v>293</v>
       </c>
       <c r="N10" s="7">
-        <v>345546</v>
+        <v>333875</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -1542,7 +1611,7 @@
         <v>301</v>
       </c>
       <c r="D11" s="7">
-        <v>426762</v>
+        <v>421882</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -1557,7 +1626,7 @@
         <v>460</v>
       </c>
       <c r="I11" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -1572,7 +1641,7 @@
         <v>761</v>
       </c>
       <c r="N11" s="7">
-        <v>925340</v>
+        <v>933386</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -1595,7 +1664,7 @@
         <v>59</v>
       </c>
       <c r="D12" s="7">
-        <v>57282</v>
+        <v>55038</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>70</v>
@@ -1610,7 +1679,7 @@
         <v>83</v>
       </c>
       <c r="I12" s="7">
-        <v>58267</v>
+        <v>54209</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>73</v>
@@ -1625,7 +1694,7 @@
         <v>142</v>
       </c>
       <c r="N12" s="7">
-        <v>115549</v>
+        <v>109247</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>76</v>
@@ -1646,7 +1715,7 @@
         <v>261</v>
       </c>
       <c r="D13" s="7">
-        <v>274527</v>
+        <v>259000</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>79</v>
@@ -1661,7 +1730,7 @@
         <v>383</v>
       </c>
       <c r="I13" s="7">
-        <v>273083</v>
+        <v>250092</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>82</v>
@@ -1676,7 +1745,7 @@
         <v>644</v>
       </c>
       <c r="N13" s="7">
-        <v>547609</v>
+        <v>509091</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>85</v>
@@ -1697,7 +1766,7 @@
         <v>226</v>
       </c>
       <c r="D14" s="7">
-        <v>225443</v>
+        <v>222300</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>88</v>
@@ -1712,7 +1781,7 @@
         <v>380</v>
       </c>
       <c r="I14" s="7">
-        <v>252126</v>
+        <v>238168</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>91</v>
@@ -1727,7 +1796,7 @@
         <v>606</v>
       </c>
       <c r="N14" s="7">
-        <v>477569</v>
+        <v>460468</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>94</v>
@@ -1748,7 +1817,7 @@
         <v>546</v>
       </c>
       <c r="D15" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -1763,7 +1832,7 @@
         <v>846</v>
       </c>
       <c r="I15" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -1778,7 +1847,7 @@
         <v>1392</v>
       </c>
       <c r="N15" s="7">
-        <v>1140727</v>
+        <v>1078806</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -1801,7 +1870,7 @@
         <v>66</v>
       </c>
       <c r="D16" s="7">
-        <v>73624</v>
+        <v>73940</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>98</v>
@@ -1816,7 +1885,7 @@
         <v>100</v>
       </c>
       <c r="I16" s="7">
-        <v>63157</v>
+        <v>58437</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>101</v>
@@ -1831,7 +1900,7 @@
         <v>166</v>
       </c>
       <c r="N16" s="7">
-        <v>136781</v>
+        <v>132377</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>104</v>
@@ -1852,7 +1921,7 @@
         <v>295</v>
       </c>
       <c r="D17" s="7">
-        <v>358450</v>
+        <v>531123</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>107</v>
@@ -1867,7 +1936,7 @@
         <v>481</v>
       </c>
       <c r="I17" s="7">
-        <v>320891</v>
+        <v>292601</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>110</v>
@@ -1882,16 +1951,16 @@
         <v>776</v>
       </c>
       <c r="N17" s="7">
-        <v>679342</v>
+        <v>823723</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1903,46 +1972,46 @@
         <v>303</v>
       </c>
       <c r="D18" s="7">
-        <v>290995</v>
+        <v>281846</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>559</v>
       </c>
       <c r="I18" s="7">
-        <v>362805</v>
+        <v>361460</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>862</v>
       </c>
       <c r="N18" s="7">
-        <v>653800</v>
+        <v>643306</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1954,7 +2023,7 @@
         <v>664</v>
       </c>
       <c r="D19" s="7">
-        <v>723069</v>
+        <v>886908</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -1969,7 +2038,7 @@
         <v>1140</v>
       </c>
       <c r="I19" s="7">
-        <v>746854</v>
+        <v>712498</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -1984,7 +2053,7 @@
         <v>1804</v>
       </c>
       <c r="N19" s="7">
-        <v>1469923</v>
+        <v>1599406</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -1998,7 +2067,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2007,46 +2076,46 @@
         <v>53</v>
       </c>
       <c r="D20" s="7">
-        <v>54110</v>
+        <v>50269</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>71</v>
       </c>
       <c r="I20" s="7">
-        <v>43953</v>
+        <v>40013</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>124</v>
       </c>
       <c r="N20" s="7">
-        <v>98063</v>
+        <v>90281</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2058,46 +2127,46 @@
         <v>312</v>
       </c>
       <c r="D21" s="7">
-        <v>282175</v>
+        <v>260215</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>412</v>
       </c>
       <c r="I21" s="7">
-        <v>254127</v>
+        <v>229807</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>724</v>
       </c>
       <c r="N21" s="7">
-        <v>536302</v>
+        <v>490022</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2109,43 +2178,43 @@
         <v>297</v>
       </c>
       <c r="D22" s="7">
-        <v>262795</v>
+        <v>249721</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>517</v>
       </c>
       <c r="I22" s="7">
-        <v>297561</v>
+        <v>276778</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>814</v>
       </c>
       <c r="N22" s="7">
-        <v>560356</v>
+        <v>526499</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>149</v>
+        <v>52</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>150</v>
@@ -2160,7 +2229,7 @@
         <v>662</v>
       </c>
       <c r="D23" s="7">
-        <v>599080</v>
+        <v>560204</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -2175,7 +2244,7 @@
         <v>1000</v>
       </c>
       <c r="I23" s="7">
-        <v>595641</v>
+        <v>546598</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -2190,7 +2259,7 @@
         <v>1662</v>
       </c>
       <c r="N23" s="7">
-        <v>1194720</v>
+        <v>1106802</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -2210,10 +2279,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D24" s="7">
-        <v>45947</v>
+        <v>27545</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>152</v>
@@ -2225,10 +2294,10 @@
         <v>154</v>
       </c>
       <c r="H24" s="7">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="I24" s="7">
-        <v>67083</v>
+        <v>29590</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>155</v>
@@ -2240,10 +2309,10 @@
         <v>157</v>
       </c>
       <c r="M24" s="7">
-        <v>180</v>
+        <v>98</v>
       </c>
       <c r="N24" s="7">
-        <v>113031</v>
+        <v>57135</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>158</v>
@@ -2252,7 +2321,7 @@
         <v>159</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>160</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,49 +2330,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>448</v>
+        <v>235</v>
       </c>
       <c r="D25" s="7">
-        <v>306563</v>
+        <v>151764</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="7">
+        <v>349</v>
+      </c>
+      <c r="I25" s="7">
+        <v>175032</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="H25" s="7">
-        <v>765</v>
-      </c>
-      <c r="I25" s="7">
-        <v>425434</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>584</v>
+      </c>
+      <c r="N25" s="7">
+        <v>326796</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="M25" s="7">
-        <v>1213</v>
-      </c>
-      <c r="N25" s="7">
-        <v>731997</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2312,49 +2381,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>511</v>
+        <v>292</v>
       </c>
       <c r="D26" s="7">
-        <v>343052</v>
+        <v>187416</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H26" s="7">
+        <v>421</v>
+      </c>
+      <c r="I26" s="7">
+        <v>403746</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H26" s="7">
-        <v>828</v>
-      </c>
-      <c r="I26" s="7">
-        <v>533684</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>713</v>
+      </c>
+      <c r="N26" s="7">
+        <v>591161</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="M26" s="7">
-        <v>1339</v>
-      </c>
-      <c r="N26" s="7">
-        <v>876736</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2363,10 +2432,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1025</v>
+        <v>568</v>
       </c>
       <c r="D27" s="7">
-        <v>695562</v>
+        <v>366724</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -2378,10 +2447,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>1707</v>
+        <v>827</v>
       </c>
       <c r="I27" s="7">
-        <v>1026202</v>
+        <v>608368</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -2393,10 +2462,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>2732</v>
+        <v>1395</v>
       </c>
       <c r="N27" s="7">
-        <v>1721764</v>
+        <v>975092</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -2410,55 +2479,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>176</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>299</v>
+        <v>25</v>
       </c>
       <c r="D28" s="7">
-        <v>333254</v>
+        <v>15689</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="H28" s="7">
+        <v>57</v>
+      </c>
+      <c r="I28" s="7">
+        <v>31047</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="H28" s="7">
-        <v>435</v>
-      </c>
-      <c r="I28" s="7">
-        <v>316698</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>82</v>
+      </c>
+      <c r="N28" s="7">
+        <v>46736</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="M28" s="7">
-        <v>734</v>
-      </c>
-      <c r="N28" s="7">
-        <v>649952</v>
-      </c>
-      <c r="O28" s="7" t="s">
+      <c r="P28" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2467,25 +2536,25 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1570</v>
+        <v>213</v>
       </c>
       <c r="D29" s="7">
-        <v>1629653</v>
+        <v>130222</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="H29" s="7">
-        <v>2369</v>
+        <v>416</v>
       </c>
       <c r="I29" s="7">
-        <v>1698966</v>
+        <v>204340</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>189</v>
@@ -2497,10 +2566,10 @@
         <v>191</v>
       </c>
       <c r="M29" s="7">
-        <v>3939</v>
+        <v>629</v>
       </c>
       <c r="N29" s="7">
-        <v>3328619</v>
+        <v>334562</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>192</v>
@@ -2518,49 +2587,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>1501</v>
+        <v>219</v>
       </c>
       <c r="D30" s="7">
-        <v>1416497</v>
+        <v>136251</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="H30" s="7">
+        <v>407</v>
+      </c>
+      <c r="I30" s="7">
+        <v>190033</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="H30" s="7">
-        <v>2556</v>
-      </c>
-      <c r="I30" s="7">
-        <v>1790042</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="L30" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M30" s="7">
+        <v>626</v>
+      </c>
+      <c r="N30" s="7">
+        <v>326284</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="M30" s="7">
-        <v>4057</v>
-      </c>
-      <c r="N30" s="7">
-        <v>3206539</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2569,63 +2638,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>457</v>
+      </c>
+      <c r="D31" s="7">
+        <v>282162</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>880</v>
+      </c>
+      <c r="I31" s="7">
+        <v>425420</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1337</v>
+      </c>
+      <c r="N31" s="7">
+        <v>707582</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>299</v>
+      </c>
+      <c r="D32" s="7">
+        <v>328614</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H32" s="7">
+        <v>435</v>
+      </c>
+      <c r="I32" s="7">
+        <v>292197</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="M32" s="7">
+        <v>734</v>
+      </c>
+      <c r="N32" s="7">
+        <v>620811</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1570</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1736507</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H33" s="7">
+        <v>2369</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1582867</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="M33" s="7">
+        <v>3939</v>
+      </c>
+      <c r="N33" s="7">
+        <v>3319374</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1501</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1389084</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H34" s="7">
+        <v>2556</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1784993</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="M34" s="7">
+        <v>4057</v>
+      </c>
+      <c r="N34" s="7">
+        <v>3174077</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3370</v>
       </c>
-      <c r="D31" s="7">
-        <v>3379404</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>3454205</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>5360</v>
       </c>
-      <c r="I31" s="7">
-        <v>3805707</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>3660057</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>8730</v>
       </c>
-      <c r="N31" s="7">
-        <v>7185110</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>204</v>
+      <c r="N35" s="7">
+        <v>7114262</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
